--- a/biology/Histoire de la zoologie et de la botanique/George_James_Allman/George_James_Allman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_James_Allman/George_James_Allman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George James Allman (1812 – 24 novembre 1898), est un éminent naturaliste irlandais, professeur émérite d'histoire naturelle à Édimbourg, botaniste et spécialiste des Hydrozoa gymnoblastiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allman est né à Cork en Irlande et commence sa scolarité à la Royal Academical Institution de Belfast. Il a commencé des études de droit, puis a abandonné le droit pour les sciences naturelles.
 En 1843, il obtient son diplôme de médecine à Dublin. Il est ensuite nommé professeur de botanique dans la même université, successeur de son homonyme William Allman (1776-1846). Il conserve cet emploi pendant une douzaine d'années, jusqu'à son départ pour Édimbourg en tant que professeur d'histoire naturelle. Il y reste jusqu'en 1870, quand des raisons de santé le font renoncer à son professorat et se retirer dans le Dorset, où il se consacre à son passe-temps favori, l'horticulture.
